--- a/artfynd/A 52871-2025 artfynd.xlsx
+++ b/artfynd/A 52871-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY50"/>
+  <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6558,6 +6558,447 @@
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>131158283</v>
+      </c>
+      <c r="B51" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Hundviken, Dlr</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>525550</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6716117</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Aspeboda</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Hört fågeln och registrerat med app.</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Daniel Alexandersson</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Daniel Alexandersson</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>131158205</v>
+      </c>
+      <c r="B52" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Hundviken, Dlr</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>525731</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6716197</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Aspeboda</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Daniel Alexandersson</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Daniel Alexandersson</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>131158127</v>
+      </c>
+      <c r="B53" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Hundviken, Dlr</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>525695</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6716177</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Aspeboda</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Daniel Alexandersson</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Daniel Alexandersson</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>131158214</v>
+      </c>
+      <c r="B54" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Hundviken, Dlr</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>525566</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6716104</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Aspeboda</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Daniel Alexandersson</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Daniel Alexandersson</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
